--- a/pipeline/pipeline_evaluation.xlsx
+++ b/pipeline/pipeline_evaluation.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Evaluation</t>
   </si>
@@ -27,19 +27,40 @@
     <t>Data</t>
   </si>
   <si>
+    <t>Note</t>
+  </si>
+  <si>
     <t>Frames</t>
   </si>
   <si>
-    <t xml:space="preserve">Prediction Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Track lightest pixel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Correct wrong row ROI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Correct wrong col ROI</t>
+    <t xml:space="preserve">Prediction Time [hh:mm:ss]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Track lightest pixel [hh:mm:ss]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correct wrong row ROI [hh:mm:ss]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correct wrong col ROI [hh:mm:ss]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correct [%]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not [%]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong [%]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensitivity [%]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specificity [%]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accuracy [%]</t>
   </si>
   <si>
     <t>Glabel</t>
@@ -49,6 +70,24 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>KK11_gap0_Cam_16904_Cine6_0_399</t>
+  </si>
+  <si>
+    <t>KK24_gap0_Cam_16904_Cine37_0_399</t>
+  </si>
+  <si>
+    <t>KK19_gap0_Cam_16904_Cine6_cropped</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not promising as many wrong predictions, adapting preprocessing might help</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Also tracking did not work so well</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -63,12 +102,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor theme="4" tint="0.39997558519241921"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor theme="5" tint="0.59999389629810485"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -169,27 +220,77 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="21" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="5" numFmtId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="21" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="5" numFmtId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="7" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0" applyBorder="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="3" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="3" borderId="0" numFmtId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="3" borderId="7" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="7" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="7" numFmtId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="3" borderId="7" numFmtId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="7" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -700,15 +801,23 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="12.00390625"/>
     <col customWidth="1" min="2" max="3" width="10.7109375"/>
-    <col customWidth="1" min="4" max="4" width="34.00390625"/>
-    <col min="5" max="5" width="9.140625"/>
-    <col customWidth="1" min="6" max="7" width="18.140625"/>
-    <col customWidth="1" min="8" max="8" width="25.00390625"/>
-    <col customWidth="1" min="9" max="9" width="25.140625"/>
-    <col min="10" max="16384" width="9.140625"/>
+    <col customWidth="1" min="4" max="4" width="18.28125"/>
+    <col customWidth="1" min="5" max="5" width="12.7109375"/>
+    <col min="6" max="6" width="9.140625"/>
+    <col customWidth="1" min="7" max="7" width="18.140625"/>
+    <col customWidth="1" min="8" max="8" width="11.7109375"/>
+    <col customWidth="1" min="9" max="9" width="15.8515625"/>
+    <col customWidth="1" min="10" max="10" width="14.8515625"/>
+    <col customWidth="1" min="11" max="11" width="15.8515625"/>
+    <col min="12" max="12" width="9.140625"/>
+    <col customWidth="1" min="13" max="13" width="10.57421875"/>
+    <col customWidth="1" min="14" max="14" width="13.140625"/>
+    <col customWidth="1" min="15" max="15" width="16.140625"/>
+    <col customWidth="1" min="16" max="16" width="13.140625"/>
+    <col min="17" max="16384" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25">
+    <row r="1" ht="45.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -727,190 +836,393 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" ht="14.25">
-      <c r="A2" s="5">
+    <row r="2" ht="28.5">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2">
+        <v>16</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6">
         <v>20</v>
       </c>
-      <c r="F2" s="7">
+      <c r="G2" s="7">
         <v>0.00063657407407407413</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="7">
+      <c r="H2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="7">
         <v>0.013622685185185186</v>
       </c>
-      <c r="I2" s="9">
+      <c r="J2" s="9">
         <v>0.0027430555555555554</v>
       </c>
+      <c r="K2" s="10">
+        <v>99.5</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0.10000000000000001</v>
+      </c>
+      <c r="M2" s="11">
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="N2" s="6">
+        <v>99.700000000000003</v>
+      </c>
+      <c r="O2" s="6">
+        <v>92.900000000000006</v>
+      </c>
+      <c r="P2" s="12">
+        <v>98</v>
+      </c>
     </row>
-    <row r="3" ht="14.25">
-      <c r="A3" s="5">
+    <row r="3" ht="28.5">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6">
+        <v>20</v>
+      </c>
+      <c r="G3" s="7">
+        <v>5.7870370370370373e-05</v>
+      </c>
+      <c r="H3" s="14">
+        <v>0.0055555555555555558</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="11"/>
+    </row>
+    <row r="4" ht="28.5">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="C4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6">
+        <v>20</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0.00062500000000000001</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.016018518518518519</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0.0046759259259259263</v>
+      </c>
+      <c r="K4" s="10">
+        <v>99.099999999999994</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="M4" s="11">
+        <v>0.40000000000000002</v>
+      </c>
+      <c r="N4" s="6">
+        <v>99.200000000000003</v>
+      </c>
+      <c r="O4" s="6">
+        <v>87.700000000000003</v>
+      </c>
+      <c r="P4" s="12">
+        <v>96.5</v>
+      </c>
+    </row>
+    <row r="5" ht="28.5">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
+      <c r="C5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6">
         <v>20</v>
       </c>
-      <c r="F3" s="7">
-        <v>5.7870370370370373e-05</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0.0055555555555555558</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>11</v>
-      </c>
+      <c r="G5" s="7">
+        <v>6.9444444444444444e-05</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0.0058912037037037041</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="4"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="11"/>
     </row>
-    <row r="4" ht="14.25">
-      <c r="A4" s="5"/>
-      <c r="G4" s="11"/>
-      <c r="I4" s="12"/>
+    <row r="6" ht="28.5">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6">
+        <v>20</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0.0006134259259259259</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.025798611111111112</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0.0031944444444444446</v>
+      </c>
+      <c r="K6" s="10">
+        <v>98.599999999999994</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0.20000000000000001</v>
+      </c>
+      <c r="M6" s="11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N6" s="6">
+        <v>99.700000000000003</v>
+      </c>
+      <c r="O6" s="6">
+        <v>58.399999999999999</v>
+      </c>
+      <c r="P6" s="12">
+        <v>93.799999999999997</v>
+      </c>
     </row>
-    <row r="5" ht="14.25">
-      <c r="A5" s="5"/>
-      <c r="G5" s="11"/>
-      <c r="I5" s="12"/>
+    <row r="7" ht="28.5">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13">
+        <v>2</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6">
+        <v>20</v>
+      </c>
+      <c r="G7" s="7">
+        <v>8.1018518518518516e-05</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0.0044791666666666669</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="11"/>
     </row>
-    <row r="6" ht="14.25">
-      <c r="A6" s="5"/>
-      <c r="G6" s="11"/>
-      <c r="I6" s="12"/>
+    <row r="8" ht="99.75">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="6">
+        <v>20</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0.00063657407407407413</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="10">
+        <v>79.799999999999997</v>
+      </c>
+      <c r="L8" s="6">
+        <v>9.9000000000000004</v>
+      </c>
+      <c r="M8" s="11">
+        <v>10.300000000000001</v>
+      </c>
+      <c r="N8" s="6">
+        <v>89.900000000000006</v>
+      </c>
+      <c r="O8" s="6">
+        <v>2.7000000000000002</v>
+      </c>
+      <c r="P8" s="12">
+        <v>29.800000000000001</v>
+      </c>
     </row>
-    <row r="7" ht="14.25">
-      <c r="A7" s="5"/>
-      <c r="G7" s="11"/>
-      <c r="I7" s="12"/>
+    <row r="9" ht="42.75">
+      <c r="A9" s="16">
+        <v>8</v>
+      </c>
+      <c r="B9" s="17">
+        <v>2</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="18">
+        <v>20</v>
+      </c>
+      <c r="G9" s="19">
+        <v>8.1018518518518516e-05</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="16"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="23"/>
     </row>
-    <row r="8" ht="14.25">
-      <c r="A8" s="5"/>
-      <c r="G8" s="11"/>
-      <c r="I8" s="12"/>
-    </row>
-    <row r="9" ht="14.25">
-      <c r="A9" s="5"/>
-      <c r="G9" s="11"/>
-      <c r="I9" s="12"/>
-    </row>
-    <row r="10" ht="14.25">
-      <c r="A10" s="5"/>
-      <c r="G10" s="11"/>
-      <c r="I10" s="12"/>
-    </row>
-    <row r="11" ht="14.25">
-      <c r="A11" s="5"/>
-      <c r="G11" s="11"/>
-      <c r="I11" s="12"/>
-    </row>
-    <row r="12" ht="14.25">
-      <c r="A12" s="5"/>
-      <c r="G12" s="11"/>
-      <c r="I12" s="12"/>
-    </row>
-    <row r="13" ht="14.25">
-      <c r="A13" s="5"/>
-      <c r="G13" s="11"/>
-      <c r="I13" s="12"/>
-    </row>
-    <row r="14" ht="14.25">
-      <c r="A14" s="5"/>
-      <c r="G14" s="11"/>
-      <c r="I14" s="12"/>
-    </row>
-    <row r="15" ht="14.25">
-      <c r="A15" s="5"/>
-      <c r="G15" s="11"/>
-      <c r="I15" s="12"/>
-    </row>
-    <row r="16" ht="14.25">
-      <c r="A16" s="5"/>
-      <c r="G16" s="11"/>
-      <c r="I16" s="12"/>
-    </row>
-    <row r="17" ht="14.25">
-      <c r="A17" s="5"/>
-      <c r="G17" s="11"/>
-      <c r="I17" s="12"/>
-    </row>
-    <row r="18" ht="14.25">
-      <c r="A18" s="5"/>
-      <c r="G18" s="11"/>
-      <c r="I18" s="12"/>
-    </row>
-    <row r="19" ht="14.25">
-      <c r="A19" s="5"/>
-      <c r="G19" s="11"/>
-      <c r="I19" s="12"/>
-    </row>
-    <row r="20" ht="14.25">
-      <c r="A20" s="5"/>
-      <c r="G20" s="11"/>
-      <c r="I20" s="12"/>
-    </row>
-    <row r="21" ht="14.25">
-      <c r="A21" s="5"/>
-      <c r="G21" s="11"/>
-      <c r="I21" s="12"/>
-    </row>
-    <row r="22" ht="14.25">
-      <c r="A22" s="5"/>
-      <c r="G22" s="11"/>
-      <c r="I22" s="12"/>
-    </row>
-    <row r="23" ht="14.25">
-      <c r="A23" s="5"/>
-      <c r="G23" s="11"/>
-      <c r="I23" s="12"/>
-    </row>
-    <row r="24" ht="14.25">
-      <c r="A24" s="5"/>
-      <c r="G24" s="11"/>
-      <c r="I24" s="12"/>
-    </row>
-    <row r="25" ht="14.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
-    </row>
+    <row r="10" ht="14.25"/>
+    <row r="11" ht="14.25"/>
+    <row r="12" ht="14.25"/>
+    <row r="13" ht="14.25"/>
+    <row r="14" ht="14.25"/>
+    <row r="15" ht="14.25"/>
+    <row r="16" ht="14.25"/>
+    <row r="17" ht="14.25"/>
+    <row r="18" ht="14.25"/>
+    <row r="19" ht="14.25"/>
+    <row r="20" ht="14.25"/>
+    <row r="21" ht="14.25"/>
+    <row r="22" ht="14.25"/>
+    <row r="23" ht="14.25"/>
+    <row r="24" ht="14.25"/>
+    <row r="25" ht="14.25"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
